--- a/EXCEL_OUPUT/Seiko Australia Pty Ltd Financial Accounts March 2023.xlsx
+++ b/EXCEL_OUPUT/Seiko Australia Pty Ltd Financial Accounts March 2023.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1744" uniqueCount="874">
   <si>
     <t>LPM</t>
   </si>
@@ -1776,88 +1776,136 @@
     <t>of low-value assets</t>
   </si>
   <si>
-    <t>recognised</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>purposes.</t>
-  </si>
-  <si>
-    <t>neither</t>
-  </si>
-  <si>
-    <t>rates</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>taxes</t>
-  </si>
-  <si>
-    <t>they</t>
-  </si>
-  <si>
-    <t>asset</t>
-  </si>
-  <si>
-    <t>which</t>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Deferred tax is recognised using the balance</t>
+  </si>
+  <si>
+    <t>carrying amounts of assets and liabilities for financial reporting purposes and the amounts used for taxation</t>
+  </si>
+  <si>
+    <t>purposes. The following temporary differences are not provided for:</t>
+  </si>
+  <si>
+    <t>liabilities that affect neither</t>
+  </si>
+  <si>
+    <t>subsidiaries to the extent that they will probably not reverse in the foreseeable future. Deferred tax is</t>
+  </si>
+  <si>
+    <t>measured at the tax rates that are expected</t>
+  </si>
+  <si>
+    <t>based on the laws that have</t>
+  </si>
+  <si>
+    <t>and liabilities are offset if there is a legally</t>
+  </si>
+  <si>
+    <t>relate to income taxes levied by the same tax authority on the same taxable entity, or on different tax entities,</t>
+  </si>
+  <si>
+    <t>but they intend to settle current tax liabilities and assets on a net basis or their tax assets and liabilities will be realised simultaneously.</t>
+  </si>
+  <si>
+    <t>A deferred tax asset is recognised only to the extent that it is probable that future taxable profits will be</t>
+  </si>
+  <si>
+    <t>available against which the asset can be utilised. Deferred tax assets are reduced to the extent that it is no</t>
   </si>
   <si>
     <t>longer probable that the related tax benefit will be realised.</t>
   </si>
   <si>
-    <t>amount</t>
+    <t>Additional income taxes that arise from the distribution of dividends are recognised at the same time as the liability to pay the related dividend.</t>
+  </si>
+  <si>
+    <t>p) Goods and services tax</t>
+  </si>
+  <si>
+    <t>Revenue, expenses and assets are recognised net of the amount of goods and services tax (GST), except where</t>
+  </si>
+  <si>
+    <t>the amount of GST incurred is not recoverable from the taxation authority. In these circumstances, the GSTis recognised as part of the cost of acquisition of the asset or as part of the expense.</t>
   </si>
   <si>
     <t>Receivables The and payables are stated with the amount of GST included.</t>
   </si>
   <si>
-    <t>or</t>
-  </si>
-  <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>appropriate</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>constant</t>
-  </si>
-  <si>
-    <t>measured</t>
-  </si>
-  <si>
-    <t>option</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>changes</t>
-  </si>
-  <si>
-    <t>affect</t>
-  </si>
-  <si>
-    <t>liabilities</t>
-  </si>
-  <si>
-    <t>following</t>
+    <t>from, or payable to, the ATO is included as a current asset or liability in the statement of financial position.</t>
+  </si>
+  <si>
+    <t>Cash flows are included in the statement of cash flows on a gross basis. The GST components of cash flows arising from investing and financing activities which are recoverable from, or payable to, the ATO are classified as operating cash flows.</t>
+  </si>
+  <si>
+    <t>q) Leases</t>
+  </si>
+  <si>
+    <t>One entering into a lease, a lease liability is recorded equal to the value of future lease payments discounted at</t>
+  </si>
+  <si>
+    <t>the appropriate incremental</t>
+  </si>
+  <si>
+    <t>right conferred to control the manner of use of the leased asset.</t>
+  </si>
+  <si>
+    <t>Lease payments are apportioned between finance charges and reduction of the lease obligation SO as to achieve</t>
+  </si>
+  <si>
+    <t>a constant rate of interest on the remaining balance of the liability. Finance charges are charged directly to the income statement and corresponding assets are depreciated on a straight-line basis over the lease term.</t>
+  </si>
+  <si>
+    <t>The lease term is measured</t>
+  </si>
+  <si>
+    <t>option to extend the lease ifit is reasonably certain that the option will be exercised and periods covered by an option to terminate the lease if it is reasonably certain that the option will not be exercised.</t>
+  </si>
+  <si>
+    <t>The lease term is reassessed if an event occurs which causes either the non-cancellable periodto change, or another event occurs which changes the assessment of the likelihood of exercising an option included in the</t>
+  </si>
+  <si>
+    <t>lease. All changes to leases are accounted for on a prospective basis from the point at which the change is triggered.</t>
+  </si>
+  <si>
+    <t>accounting nor</t>
+  </si>
+  <si>
+    <t>been enacted or substantively enacted by the reporting date. Deferred tax assets</t>
+  </si>
+  <si>
+    <t>borrowing rate and simultaneously a right of use asset is created representing the</t>
+  </si>
+  <si>
+    <t>as the non-cancellable period of a lease,</t>
+  </si>
+  <si>
+    <t>sheet method, providing</t>
+  </si>
+  <si>
+    <t>taxable profit, and differences relating to investments in</t>
+  </si>
+  <si>
+    <t>to be applied to the temporary differences when they reverse,</t>
+  </si>
+  <si>
+    <t>enforceable right to offset</t>
+  </si>
+  <si>
+    <t>for temporary differences between the</t>
+  </si>
+  <si>
+    <t>goodwill, the initial recognition of assets or</t>
+  </si>
+  <si>
+    <t>current tax liabilities and assets, and they</t>
   </si>
   <si>
     <t>The net amount of GST recoverable</t>
   </si>
   <si>
-    <t>3.</t>
+    <t>together with both periods covered by an</t>
   </si>
   <si>
     <t>(ii) Short-term employee benefits</t>
@@ -1911,10 +1959,10 @@
     <t>(i) Net financing costs</t>
   </si>
   <si>
-    <t>financing Net costs comprise expense on interest borrowings calculated using the effective interest method,</t>
-  </si>
-  <si>
-    <t>financing costs comprise expense on dividends on redeemable preference shares, interest receivable on funds invested, dividend income, foreign exchange gains and losses.</t>
+    <t>Net financing costs comprise interest expense on borrowings calculated using the effective interest method,</t>
+  </si>
+  <si>
+    <t>financing costs comprise dividends expense on on redeemable preference shares, interest receivable on funds invested, dividend income, foreign exchange gains and losses.</t>
   </si>
   <si>
     <t>Interest income is recognised in the statement of profit or loss and other comprehensive income as it accrues,</t>
@@ -1951,9 +1999,6 @@
   </si>
   <si>
     <t>Deferred tax is recognised using the balance sheet method, providing for temporary differences between the</t>
-  </si>
-  <si>
-    <t>carrying amounts of assets and liabilities for financial reporting purposes and the amounts used for taxation</t>
   </si>
   <si>
     <t>purposes. The following</t>
@@ -6060,13 +6105,13 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1">
         <v>0</v>
       </c>
@@ -6076,406 +6121,535 @@
       <c r="C1" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>608</v>
+      </c>
+      <c r="D3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C4" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="C6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>580</v>
+      </c>
+      <c r="B9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C9" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10" t="s">
+        <v>581</v>
+      </c>
+      <c r="C10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D10" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11" t="s">
+        <v>582</v>
+      </c>
+      <c r="C11" t="s">
+        <v>582</v>
+      </c>
+      <c r="D11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>583</v>
+      </c>
+      <c r="B12" t="s">
+        <v>583</v>
+      </c>
+      <c r="C12" t="s">
+        <v>583</v>
+      </c>
+      <c r="D12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>583</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+      <c r="C13" t="s">
+        <v>583</v>
+      </c>
+      <c r="D13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" t="s">
+        <v>584</v>
+      </c>
+      <c r="C14" t="s">
+        <v>584</v>
+      </c>
+      <c r="D14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C15" t="s">
+        <v>585</v>
+      </c>
+      <c r="D15" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>587</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>587</v>
+      </c>
+      <c r="D17" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" t="s">
+        <v>587</v>
+      </c>
+      <c r="D18" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>589</v>
+      </c>
+      <c r="B20" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D20" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>590</v>
+      </c>
+      <c r="B21" t="s">
+        <v>590</v>
+      </c>
+      <c r="C21" t="s">
+        <v>590</v>
+      </c>
+      <c r="D21" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22" t="s">
+        <v>590</v>
+      </c>
+      <c r="C22" t="s">
+        <v>590</v>
+      </c>
+      <c r="D22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B23" t="s">
+        <v>591</v>
+      </c>
+      <c r="C23" t="s">
+        <v>591</v>
+      </c>
+      <c r="D23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>592</v>
+      </c>
+      <c r="B24" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" t="s">
+        <v>592</v>
+      </c>
+      <c r="D24" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B25" t="s">
+        <v>593</v>
+      </c>
+      <c r="C25" t="s">
+        <v>593</v>
+      </c>
+      <c r="D25" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>593</v>
+      </c>
+      <c r="B26" t="s">
+        <v>593</v>
+      </c>
+      <c r="C26" t="s">
+        <v>593</v>
+      </c>
+      <c r="D26" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" t="s">
+        <v>593</v>
+      </c>
+      <c r="C27" t="s">
+        <v>593</v>
+      </c>
+      <c r="D27" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s">
+        <v>595</v>
+      </c>
+      <c r="C29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>596</v>
+      </c>
+      <c r="B30" t="s">
+        <v>606</v>
+      </c>
+      <c r="C30" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>597</v>
+      </c>
+      <c r="B31" t="s">
+        <v>597</v>
+      </c>
+      <c r="C31" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>576</v>
-      </c>
-      <c r="B6" t="s">
-        <v>596</v>
-      </c>
-      <c r="C6" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>577</v>
-      </c>
-      <c r="B8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C8" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>578</v>
-      </c>
-      <c r="B9" t="s">
-        <v>578</v>
-      </c>
-      <c r="C9" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>579</v>
-      </c>
-      <c r="B10" t="s">
-        <v>597</v>
-      </c>
-      <c r="C10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>580</v>
-      </c>
-      <c r="B11" t="s">
-        <v>580</v>
-      </c>
-      <c r="C11" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>581</v>
-      </c>
-      <c r="B12" t="s">
-        <v>581</v>
-      </c>
-      <c r="C12" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>581</v>
-      </c>
-      <c r="B13" t="s">
-        <v>581</v>
-      </c>
-      <c r="C13" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>582</v>
-      </c>
-      <c r="B14" t="s">
-        <v>582</v>
-      </c>
-      <c r="C14" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>583</v>
-      </c>
-      <c r="B15" t="s">
-        <v>583</v>
-      </c>
-      <c r="C15" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>584</v>
-      </c>
-      <c r="B16" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B17" t="s">
-        <v>580</v>
-      </c>
-      <c r="C17" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>580</v>
-      </c>
-      <c r="B18" t="s">
-        <v>580</v>
-      </c>
-      <c r="C18" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>274</v>
-      </c>
-      <c r="B20" t="s">
-        <v>274</v>
-      </c>
-      <c r="C20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>585</v>
-      </c>
-      <c r="B21" t="s">
-        <v>585</v>
-      </c>
-      <c r="C21" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>585</v>
-      </c>
-      <c r="B22" t="s">
-        <v>585</v>
-      </c>
-      <c r="C22" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>586</v>
-      </c>
-      <c r="B23" t="s">
-        <v>586</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B32" t="s">
+        <v>598</v>
+      </c>
+      <c r="C32" t="s">
+        <v>598</v>
+      </c>
+      <c r="D32" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>587</v>
-      </c>
-      <c r="B24" t="s">
-        <v>587</v>
-      </c>
-      <c r="C24" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>579</v>
-      </c>
-      <c r="B25" t="s">
-        <v>579</v>
-      </c>
-      <c r="C25" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>579</v>
-      </c>
-      <c r="B26" t="s">
-        <v>579</v>
-      </c>
-      <c r="C26" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>579</v>
-      </c>
-      <c r="B27" t="s">
-        <v>579</v>
-      </c>
-      <c r="C27" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>588</v>
-      </c>
-      <c r="B29" t="s">
-        <v>588</v>
-      </c>
-      <c r="C29" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>589</v>
-      </c>
-      <c r="B30" t="s">
-        <v>589</v>
-      </c>
-      <c r="C30" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>590</v>
-      </c>
-      <c r="B31" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>579</v>
-      </c>
-      <c r="B32" t="s">
-        <v>579</v>
-      </c>
-      <c r="C32" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>591</v>
-      </c>
       <c r="B33" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C33" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>599</v>
+      </c>
+      <c r="D33" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B34" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="C34" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>599</v>
+      </c>
+      <c r="D34" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B35" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="C35" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>607</v>
+      </c>
+      <c r="D35" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B36" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C36" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>601</v>
+      </c>
+      <c r="D36" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B37" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="C37" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>601</v>
+      </c>
+      <c r="D37" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B38" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C38" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>602</v>
+      </c>
+      <c r="D38" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B39" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="C39" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>602</v>
+      </c>
+      <c r="D39" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B40" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C40" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>603</v>
+      </c>
+      <c r="D40" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B41" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="C41" t="s">
-        <v>595</v>
+        <v>603</v>
+      </c>
+      <c r="D41" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -6504,399 +6678,399 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
       <c r="C4" t="s">
-        <v>602</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
       <c r="C5" t="s">
-        <v>603</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
       <c r="C6" t="s">
-        <v>604</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>606</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
       <c r="C9" t="s">
-        <v>607</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="C10" t="s">
-        <v>608</v>
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C11" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="B12" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="C12" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="B15" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
       <c r="C15" t="s">
-        <v>612</v>
+        <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C16" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="B17" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>629</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
       <c r="B18" t="s">
-        <v>614</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="B19" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="B20" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C20" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>617</v>
+        <v>633</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="B23" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B24" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="C24" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="B25" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
       <c r="C25" t="s">
-        <v>619</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="C26" t="s">
-        <v>620</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
       <c r="C27" t="s">
-        <v>621</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>622</v>
+        <v>638</v>
       </c>
       <c r="B28" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="C28" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
       <c r="C29" t="s">
-        <v>623</v>
+        <v>639</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="B30" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
       <c r="C30" t="s">
-        <v>624</v>
+        <v>640</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
       <c r="B31" t="s">
-        <v>625</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>626</v>
+        <v>642</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="B33" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
       <c r="C33" t="s">
-        <v>627</v>
+        <v>643</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="B34" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
       <c r="C34" t="s">
-        <v>628</v>
+        <v>644</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
       <c r="B35" t="s">
-        <v>629</v>
+        <v>645</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B36" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="B37" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
       <c r="C37" t="s">
-        <v>630</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="B38" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
       <c r="C38" t="s">
-        <v>631</v>
+        <v>647</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="B39" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
       <c r="C39" t="s">
-        <v>632</v>
+        <v>575</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="B40" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C40" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B41" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="C41" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="B42" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="C42" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>
@@ -6922,7 +7096,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="B2" t="s">
         <v>344</v>
@@ -6930,10 +7104,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B3" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -7216,404 +7390,404 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B4" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C4" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="D4" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="B5" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C5" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D5" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B6" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C6" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D6" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="C7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="D7" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="B9" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="C9" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="D9" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B10" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="C10" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="D10" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B11" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="C11" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="D11" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B12" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="C12" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="D12" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B15" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="C15" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="D15" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B16" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="C16" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="D16" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="B17" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C17" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="D17" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="B19" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="C19" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="D19" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="B20" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="C20" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D20" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="B21" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="C21" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="D21" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B22" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="C22" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B23" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C23" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="D23" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B24" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="C24" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D24" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="B25" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="C25" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="D25" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="B27" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="C27" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="D27" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="B28" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="C28" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="D28" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="B29" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="C29" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="B30" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="C30" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="D30" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B31" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="C31" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="D31" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B32" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="C32" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="D32" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="B33" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C33" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="D33" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="B34" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="C34" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D34" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="B35" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="C35" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D35" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7639,26 +7813,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
       <c r="B4" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>
@@ -7684,18 +7858,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="B2" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B3" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -7721,7 +7895,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="B2" t="s">
         <v>234</v>
@@ -7729,10 +7903,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B3" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
   </sheetData>
@@ -7755,17 +7929,17 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -7797,85 +7971,85 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="C2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B3" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="C3" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="D3" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="B4" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="B5" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C5" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="D5" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="B6" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="C6" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="D6" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="B8" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="C8" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="D8" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -7885,58 +8059,58 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="B10" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="C10" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="D10" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="B11" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C11" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="D11" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B12" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D12" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B13" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C13" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -7946,102 +8120,102 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="B15" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C15" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D15" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="B16" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C16" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D16" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="B17" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C17" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="D17" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="B18" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="B19" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="C19" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="D19" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C20" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="D20" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="B21" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="C21" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B22" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -8064,142 +8238,142 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
@@ -8225,12 +8399,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="B3" t="s">
         <v>190</v>
@@ -8238,7 +8412,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="B4" t="s">
         <v>190</v>
@@ -8246,7 +8420,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="B5" t="s">
         <v>158</v>
@@ -8254,26 +8428,26 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="B6" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="B8" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -8281,12 +8455,12 @@
         <v>523</v>
       </c>
       <c r="B9" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
         <v>160</v>
@@ -8302,7 +8476,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="B12" t="s">
         <v>160</v>
@@ -8310,7 +8484,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="B13" t="s">
         <v>160</v>
@@ -8318,31 +8492,31 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="B14" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="B15" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B16" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="B17" t="s">
         <v>510</v>
@@ -8350,7 +8524,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B18" t="s">
         <v>510</v>
@@ -8358,7 +8532,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="B19" t="s">
         <v>510</v>
@@ -8366,7 +8540,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="B20" t="s">
         <v>511</v>
@@ -8374,7 +8548,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="B21" t="s">
         <v>511</v>
@@ -8382,7 +8556,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="B22" t="s">
         <v>171</v>
@@ -8390,7 +8564,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="B23" t="s">
         <v>267</v>
@@ -8406,7 +8580,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="B25" t="s">
         <v>267</v>
@@ -8414,18 +8588,18 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="B26" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
       <c r="B27" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
     </row>
   </sheetData>
@@ -8481,24 +8655,24 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="C5" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="D5" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D6" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -8514,7 +8688,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C8" t="s">
         <v>325</v>
@@ -8525,7 +8699,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="C9" t="s">
         <v>176</v>
@@ -8536,7 +8710,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="B10" t="s">
         <v>171</v>
@@ -8550,113 +8724,113 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="B12" t="s">
         <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="D12" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="D13" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C14" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="D14" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="D17" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="C18" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D18" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>759</v>
+        <v>774</v>
       </c>
       <c r="C19" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D19" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="C20" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="D20" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C21" t="s">
         <v>342</v>
       </c>
       <c r="D21" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="B22" t="s">
         <v>190</v>
@@ -8700,38 +8874,38 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="B2" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C2" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="D2" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="E2" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="B3" t="s">
         <v>225</v>
       </c>
       <c r="D3" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="E3" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8747,7 +8921,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="D6" t="s">
         <v>180</v>
@@ -8758,27 +8932,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="D7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="E7" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="B8" t="s">
         <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="E8" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -9043,7 +9217,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -9059,7 +9233,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C5">
         <v>3056</v>
@@ -9070,7 +9244,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9135,7 +9309,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9154,13 +9328,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="C6" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="D6" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -9179,7 +9353,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="B8" t="s">
         <v>159</v>
@@ -9193,18 +9367,18 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="C9" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="D9" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="B10" t="s">
         <v>160</v>
@@ -9224,15 +9398,15 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="D11" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="B12" t="s">
         <v>157</v>
@@ -9246,29 +9420,29 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C13" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="D13" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="C14" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="D14" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9276,7 +9450,7 @@
         <v>359</v>
       </c>
       <c r="B16" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="C16" t="s">
         <v>368</v>
@@ -9290,7 +9464,7 @@
         <v>344</v>
       </c>
       <c r="B17" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C17" t="s">
         <v>351</v>
@@ -9301,13 +9475,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C18" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="D18" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -9315,18 +9489,18 @@
         <v>238</v>
       </c>
       <c r="B19" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="C19" t="s">
         <v>292</v>
       </c>
       <c r="D19" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C20" t="s">
         <v>363</v>
@@ -9337,13 +9511,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="C21" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="D21" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -9351,7 +9525,7 @@
         <v>344</v>
       </c>
       <c r="B22" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="C22" t="s">
         <v>352</v>
@@ -9365,18 +9539,18 @@
         <v>238</v>
       </c>
       <c r="B23" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="C23" t="s">
         <v>304</v>
       </c>
       <c r="D23" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C24" t="s">
         <v>364</v>
@@ -9387,48 +9561,48 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="C25" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="D25" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C26" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D26" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>821</v>
+      </c>
+      <c r="C27" t="s">
+        <v>837</v>
+      </c>
+      <c r="D27" t="s">
         <v>806</v>
-      </c>
-      <c r="C27" t="s">
-        <v>822</v>
-      </c>
-      <c r="D27" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="B29" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="C29" t="s">
         <v>225</v>
@@ -9439,24 +9613,24 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="C30" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="D30" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="C31" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="D31" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -9507,10 +9681,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="B4" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="C4" t="s">
         <v>529</v>
@@ -9521,29 +9695,29 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="C5" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="D5" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="C6" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="D6" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="B7" t="s">
         <v>166</v>
@@ -9554,41 +9728,41 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="B8" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="C8" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="D8" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="C9" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="D9" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="C10" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="D10" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -9607,7 +9781,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="B12" t="s">
         <v>330</v>
@@ -9632,7 +9806,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="C14" t="s">
         <v>321</v>
@@ -9646,13 +9820,13 @@
         <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="C15" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="D15" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -9668,12 +9842,12 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="C18" t="s">
         <v>163</v>
